--- a/teaching/traditional_assets/database/data/mauritius/mauritius_precious_metals.xlsx
+++ b/teaching/traditional_assets/database/data/mauritius/mauritius_precious_metals.xlsx
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="K2">
-        <v>-0.734</v>
+        <v>-1.42</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -615,64 +615,52 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1.22</v>
+        <v>0.348</v>
       </c>
       <c r="V2">
-        <v>0.1270833333333333</v>
-      </c>
-      <c r="W2">
-        <v>-0.9619921363040629</v>
+        <v>0.04438775510204081</v>
       </c>
       <c r="X2">
-        <v>0.08683631681671639</v>
-      </c>
-      <c r="Y2">
-        <v>-1.048828453120779</v>
-      </c>
-      <c r="Z2">
+        <v>0.06361838375065348</v>
+      </c>
+      <c r="AB2">
+        <v>0.06361838375065348</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>-0.348</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
         <v>-0</v>
       </c>
-      <c r="AA2">
-        <v>2.727272727272727</v>
-      </c>
-      <c r="AB2">
-        <v>0.08683631681671639</v>
-      </c>
-      <c r="AC2">
-        <v>2.640436410456011</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>-1.22</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
       <c r="AJ2">
-        <v>-0.1455847255369929</v>
+        <v>-0.04644954618259477</v>
       </c>
       <c r="AK2">
-        <v>1.038297872340425</v>
+        <v>0.5631067961165048</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.056</v>
       </c>
       <c r="AM2">
-        <v>-0.033</v>
+        <v>0.025</v>
+      </c>
+      <c r="AO2">
+        <v>-10.66071428571428</v>
       </c>
       <c r="AQ2">
-        <v>42.72727272727272</v>
+        <v>-23.88</v>
       </c>
     </row>
     <row r="3">
@@ -692,7 +680,7 @@
         </is>
       </c>
       <c r="K3">
-        <v>-0.734</v>
+        <v>-1.42</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -716,64 +704,52 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1.22</v>
+        <v>0.348</v>
       </c>
       <c r="V3">
-        <v>0.1270833333333333</v>
-      </c>
-      <c r="W3">
-        <v>-0.9619921363040629</v>
+        <v>0.04438775510204081</v>
       </c>
       <c r="X3">
-        <v>0.08683631681671639</v>
-      </c>
-      <c r="Y3">
-        <v>-1.048828453120779</v>
-      </c>
-      <c r="Z3">
+        <v>0.06361838375065348</v>
+      </c>
+      <c r="AB3">
+        <v>0.06361838375065348</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>-0.348</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
         <v>-0</v>
       </c>
-      <c r="AA3">
-        <v>2.727272727272727</v>
-      </c>
-      <c r="AB3">
-        <v>0.08683631681671639</v>
-      </c>
-      <c r="AC3">
-        <v>2.640436410456011</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>-1.22</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
       <c r="AJ3">
-        <v>-0.1455847255369929</v>
+        <v>-0.04644954618259477</v>
       </c>
       <c r="AK3">
-        <v>1.038297872340425</v>
+        <v>0.5631067961165048</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.056</v>
       </c>
       <c r="AM3">
-        <v>-0.033</v>
+        <v>0.025</v>
+      </c>
+      <c r="AO3">
+        <v>-10.66071428571428</v>
       </c>
       <c r="AQ3">
-        <v>42.72727272727272</v>
+        <v>-23.88</v>
       </c>
     </row>
   </sheetData>
